--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2410720.119831731</v>
+        <v>-2413303.15190146</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15881223.46368096</v>
+        <v>15881223.46368095</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.6450161510093</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>91.44574675722032</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933831</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.143507641456</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.2622415507114</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>58.28185552386441</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>116.2928125516915</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191728997</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1032,7 +1032,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149427</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.497062441472497</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.1406215660494</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>318.4097791134432</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>146.5990350281154</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>147.3013988713527</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>40.53421095547225</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389241</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670985</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>21.23835815356773</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428533</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>42.71572132711307</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.72582864853786</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.339113733127</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149754</v>
+        <v>171.0385136149762</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316659</v>
+        <v>158.4533545316667</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512504</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796072</v>
+        <v>44.76793778821614</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559693</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253069</v>
+        <v>156.7306717253077</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792619</v>
+        <v>131.5012462792627</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.4723697516044</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315972</v>
+        <v>57.58178014316056</v>
       </c>
       <c r="S28" t="n">
-        <v>118.727219744559</v>
+        <v>172.2328194346834</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603263</v>
+        <v>208.6119837603271</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222822</v>
+        <v>277.391007822283</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>243.3441767568669</v>
       </c>
       <c r="W28" t="n">
-        <v>277.729531769629</v>
+        <v>277.7295317696299</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220752</v>
+        <v>216.916188822076</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851329</v>
+        <v>209.7911867851336</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541847</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,10 +3010,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>1295.236214140709</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796252</v>
+        <v>1295.236214140709</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796249</v>
+        <v>1295.236214140709</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>909.4479615424643</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>498.4620567528568</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810562</v>
@@ -4337,43 +4337,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794327</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180642</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180642</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1681.83605420483</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387298</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332742</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686095</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064767</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080145</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986319</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291645</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513961</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068416</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486471</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962574</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201689</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.9544330261738</v>
+        <v>680.3679798527296</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>511.4317969248227</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>361.315157512487</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962294</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588488</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886955</v>
+        <v>671.0968864886964</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068863</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596451</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181847</v>
+        <v>920.8870058181859</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181847</v>
+        <v>920.8870058181859</v>
       </c>
       <c r="S4" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181859</v>
       </c>
       <c r="T4" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181859</v>
       </c>
       <c r="U4" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181859</v>
       </c>
       <c r="V4" t="n">
-        <v>495.6028978564135</v>
+        <v>920.8870058181859</v>
       </c>
       <c r="W4" t="n">
-        <v>495.6028978564135</v>
+        <v>920.8870058181859</v>
       </c>
       <c r="X4" t="n">
-        <v>495.6028978564135</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.6028978564135</v>
+        <v>862.0164446829693</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1285.591601078696</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744046</v>
+        <v>809.8584150459945</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761603</v>
+        <v>424.0701624477503</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269569</v>
+        <v>417.1246616985468</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2062.33077311863</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>1672.191441142818</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4641,43 +4641,43 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T7" t="n">
-        <v>583.6045342045572</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U7" t="n">
-        <v>294.5016673302007</v>
+        <v>631.7841389438294</v>
       </c>
       <c r="V7" t="n">
-        <v>294.5016673302007</v>
+        <v>631.7841389438294</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302007</v>
+        <v>342.3669689068687</v>
       </c>
       <c r="X7" t="n">
-        <v>66.5121164321834</v>
+        <v>342.3669689068687</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.5121164321834</v>
+        <v>342.3669689068687</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285689</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="C8" t="n">
-        <v>1398.916003345278</v>
+        <v>1535.524858594927</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.650304738527</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1040.650304738527</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>629.6643999489197</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>214.5919497939162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>1904.487375535339</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.619250712236</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>359.619250712236</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>580.4118298557661</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>580.4118298557661</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>580.4118298557661</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.619250712236</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5036,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2497.745796000626</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400743</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400743</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277386</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
         <v>1688.385853854709</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713844</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703139</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5267,55 +5267,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591808</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770321</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>344.917417812168</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.917417812168</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.917417812168</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.917417812168</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.721318527048</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072718</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5516,34 +5516,34 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,43 +5650,43 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5710,7 +5710,7 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
         <v>916.2946447138411</v>
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380891</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978465</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683289</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6078,13 +6078,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>847.644273983533</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6212,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>963.2867201419737</v>
+        <v>663.4384611045958</v>
       </c>
       <c r="C28" t="n">
-        <v>803.2328266756443</v>
+        <v>503.3845676382658</v>
       </c>
       <c r="D28" t="n">
-        <v>661.9984767248864</v>
+        <v>503.3845676382658</v>
       </c>
       <c r="E28" t="n">
-        <v>522.967672604071</v>
+        <v>458.1644284582495</v>
       </c>
       <c r="F28" t="n">
-        <v>384.9600145677384</v>
+        <v>458.1644284582495</v>
       </c>
       <c r="G28" t="n">
-        <v>226.6462047441961</v>
+        <v>299.8506186347063</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>167.0210769384813</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795881</v>
+        <v>182.7582133795872</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064188</v>
+        <v>453.1530078064173</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836512</v>
+        <v>852.2571338836489</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515978</v>
+        <v>1282.972368515975</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077279</v>
+        <v>1709.087772077275</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687556</v>
+        <v>2087.322584687552</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162407</v>
+        <v>2388.703572162402</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790599</v>
+        <v>2516.607338790593</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504579</v>
+        <v>2458.443924504572</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.517439914116</v>
+        <v>2284.471379621053</v>
       </c>
       <c r="T28" t="n">
-        <v>2127.798264398635</v>
+        <v>2073.752204105571</v>
       </c>
       <c r="U28" t="n">
-        <v>1847.605327204411</v>
+        <v>1793.559266911346</v>
       </c>
       <c r="V28" t="n">
-        <v>1847.605327204411</v>
+        <v>1547.757068167036</v>
       </c>
       <c r="W28" t="n">
-        <v>1567.070446629028</v>
+        <v>1267.222187591652</v>
       </c>
       <c r="X28" t="n">
-        <v>1347.963185192588</v>
+        <v>1048.114926155212</v>
       </c>
       <c r="Y28" t="n">
-        <v>1136.052895510636</v>
+        <v>836.2046364732583</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6458,52 +6458,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6640,31 +6640,31 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.15589967238</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319336</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7114,10 +7114,10 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,13 +7594,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>2817.800993781636</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336243</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2978.493192213311</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>2834.08695624706</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>2708.500263796381</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>2585.117117175644</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>2320.090964315926</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>2202.90908011978</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2249.630143176794</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>2535.361206719452</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>3395.853105660664</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>3837.304778337792</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>4230.875860063896</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>4547.593116654574</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>4294.92099021381</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>4030.375710519665</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>3135.611710081894</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -22553,13 +22553,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>278.2853539212525</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>319.4759788962331</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -22762,13 +22762,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>20.87540177311664</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>167.4277998651727</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>105.8997516910969</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>57.2291039219387</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>146.0084629450601</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392193854</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>105.8997516910993</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>131.6952193743934</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.24553961896778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.8220064512512</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>92.8725582913919</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.6275814559701</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160358</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>53.50559969012367</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568661</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1118739.323053748</v>
+        <v>1118739.323053749</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1395341.320364675</v>
+        <v>1395341.320364674</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32904.09773687493</v>
+        <v>32904.09773687495</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321418</v>
       </c>
       <c r="D2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40357.32998450031</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40357.32998450031</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40608.90191777582</v>
+      </c>
+      <c r="K2" t="n">
         <v>41052.08849321418</v>
       </c>
-      <c r="E2" t="n">
-        <v>40357.32998450032</v>
-      </c>
-      <c r="F2" t="n">
-        <v>40357.3299845003</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40357.32998450032</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40357.32998450031</v>
-      </c>
-      <c r="I2" t="n">
-        <v>40357.32998450031</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40608.90191777584</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.08849321419</v>
-      </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321418</v>
       </c>
       <c r="N2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.0884932142</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321421</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.975650847</v>
+        <v>224565.9756508466</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.9447400622</v>
+        <v>12392.94474006289</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569551</v>
+        <v>7034.77325356892</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.9447400622</v>
+        <v>12392.94474006288</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061235</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405241</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26430,28 +26430,28 @@
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>18330.12873445301</v>
+        <v>18330.1287344528</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997309</v>
+        <v>23427.49926997317</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997315</v>
       </c>
       <c r="O4" t="n">
         <v>23427.49926997313</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101861.7877647251</v>
+        <v>101861.787764725</v>
       </c>
       <c r="K5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404359.235541117</v>
+        <v>-1404766.635078934</v>
       </c>
       <c r="C6" t="n">
-        <v>-160478.5961722317</v>
+        <v>-160478.5961722316</v>
       </c>
       <c r="D6" t="n">
-        <v>-160478.5961722317</v>
+        <v>-160478.5961722316</v>
       </c>
       <c r="E6" t="n">
-        <v>-401614.3016536419</v>
+        <v>-401649.0395790775</v>
       </c>
       <c r="F6" t="n">
-        <v>-76201.83984628649</v>
+        <v>-76236.57777172218</v>
       </c>
       <c r="G6" t="n">
-        <v>-76201.83984628649</v>
+        <v>-76236.57777172215</v>
       </c>
       <c r="H6" t="n">
-        <v>-76201.83984628649</v>
+        <v>-76236.57777172218</v>
       </c>
       <c r="I6" t="n">
-        <v>-76201.83984628646</v>
+        <v>-76236.57777172218</v>
       </c>
       <c r="J6" t="n">
-        <v>-304148.9902322493</v>
+        <v>-304171.1495610204</v>
       </c>
       <c r="K6" t="n">
-        <v>-97932.47137073654</v>
+        <v>-97932.47137073726</v>
       </c>
       <c r="L6" t="n">
-        <v>-85539.52663067431</v>
+        <v>-85539.5266306744</v>
       </c>
       <c r="M6" t="n">
-        <v>-170594.5545661863</v>
+        <v>-170594.5545661862</v>
       </c>
       <c r="N6" t="n">
-        <v>-85539.52663067433</v>
+        <v>-85539.5266306744</v>
       </c>
       <c r="O6" t="n">
-        <v>-92574.29988424387</v>
+        <v>-92574.29988424326</v>
       </c>
       <c r="P6" t="n">
-        <v>-97932.47137073654</v>
+        <v>-97932.47137073721</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507775</v>
+        <v>15.49118092507861</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961939</v>
+        <v>8.79346656696115</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507775</v>
+        <v>15.4911809250786</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507775</v>
+        <v>15.49118092507861</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>248.980079219316</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>259.6421064805537</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>170.3349177404648</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>75.40832771011978</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>36.27326250723979</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>148.008729359205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>104.8362444524753</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.557513963650944e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-2.542561852804192e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.799680487441947e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3.126388037344441e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-3.399497815529941e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961939</v>
+        <v>8.793466566961133</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31838,7 +31838,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.8560084902126</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32251,7 +32251,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669224</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>569.5723171953896</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>225.4828684302374</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>369.1789913099994</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>150.7833302198378</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.5330199802459</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.87423440419106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999012</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060489</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35899,7 +35899,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>426.9760727509451</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88662398579301</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>226.582746865555</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991535</v>
+        <v>89.83994982991449</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765969</v>
+        <v>273.126054976596</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860934</v>
+        <v>403.1354808860925</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680071</v>
+        <v>435.0658935680062</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568693</v>
+        <v>430.4195995568685</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730074</v>
+        <v>382.0553662730065</v>
       </c>
       <c r="P28" t="n">
-        <v>304.425239873587</v>
+        <v>304.4252398735861</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668603</v>
+        <v>129.1957238668595</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>23.94570355317105</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5512458942243</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>432.0572943778172</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396164</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
